--- a/posesiones/1381246.xlsx
+++ b/posesiones/1381246.xlsx
@@ -842,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>11</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>24</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>29</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23">
         <v>9</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>9</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>19</v>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>11</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>17</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>13</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>13</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>28</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>5</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>17</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>18</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>34</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52">
         <v>21</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R54">
         <v>14</v>
